--- a/data/CS1_3/Market Data/CS1_market_data_2020.xlsx
+++ b/data/CS1_3/Market Data/CS1_market_data_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9215A10-10CD-404E-9131-D4E1C2BD83D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5BC4A7-6C18-4B06-A385-393A788E46AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26430" yWindow="2310" windowWidth="21600" windowHeight="12735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -3457,7 +3457,7 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/CS1_3/Market Data/CS1_market_data_2020.xlsx
+++ b/data/CS1_3/Market Data/CS1_market_data_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5BC4A7-6C18-4B06-A385-393A788E46AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FEA2E9-2E36-450B-A19C-37D84B13240B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26430" yWindow="2310" windowWidth="21600" windowHeight="12735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -140,22 +140,22 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>1.2500000000000001E-2</v>
+            <v>-5.0000000000000001E-3</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>1.2500000000000001E-2</v>
+            <v>2.5000000000000001E-2</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>1.2500000000000001E-2</v>
+            <v>2.5000000000000001E-2</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>1.2500000000000001E-2</v>
+            <v>2.5000000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -3409,12 +3409,12 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3460,9 +3460,9 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>160.20411438107772</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>152.19390866202383</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>168.2143201001316</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>144.18370294296994</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4058,9 +4058,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>33.44</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>36.960000000000008</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>31.680000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>38.720000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -4681,9 +4681,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>176.22452581918552</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>167.41329952822622</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>185.03575211014481</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>158.60207323726698</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5278,9 +5278,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>144.18370294296994</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>136.97451779582144</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5660,7 +5660,7 @@
         <v>151.39288809011845</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>129.76533264867297</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5875,9 +5875,9 @@
       <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6055,7 +6055,7 @@
         <v>160.20411438107772</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6156,7 +6156,7 @@
         <v>152.19390866202383</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>168.2143201001316</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>144.18370294296994</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6473,9 +6473,9 @@
       <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -6552,7 +6552,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>33.44</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6855,7 +6855,7 @@
         <v>36.960000000000008</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6956,7 +6956,7 @@
         <v>31.680000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7057,7 +7057,7 @@
         <v>38.720000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -7096,9 +7096,9 @@
       <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7276,7 +7276,7 @@
         <v>176.22452581918552</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>167.41329952822622</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7478,7 +7478,7 @@
         <v>185.03575211014481</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7579,7 +7579,7 @@
         <v>158.60207323726698</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7693,9 +7693,9 @@
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>144.18370294296994</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7974,7 +7974,7 @@
         <v>136.97451779582144</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8075,7 +8075,7 @@
         <v>151.39288809011845</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8176,7 +8176,7 @@
         <v>129.76533264867297</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>

--- a/data/CS1_3/Market Data/CS1_market_data_2020.xlsx
+++ b/data/CS1_3/Market Data/CS1_market_data_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FEA2E9-2E36-450B-A19C-37D84B13240B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D1C10B-CB39-484E-A416-2D63AF61B5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -150,12 +150,12 @@
         </row>
         <row r="4">
           <cell r="B4">
-            <v>2.5000000000000001E-2</v>
+            <v>5.0000000000000001E-3</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>2.5000000000000001E-2</v>
+            <v>5.0000000000000001E-3</v>
           </cell>
         </row>
       </sheetData>
@@ -3456,7 +3456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E73F7F-45E0-423B-A01B-B6DF6F75CAB7}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -4055,7 +4055,7 @@
   <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4677,8 +4677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E119D8D-D7FD-46DB-8300-FC3B5CEFAAC8}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/CS1_3/Market Data/CS1_market_data_2020.xlsx
+++ b/data/CS1_3/Market Data/CS1_market_data_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D1C10B-CB39-484E-A416-2D63AF61B5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65C26AD-6715-440D-B96C-5399BD5350EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2544" yWindow="2544" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -3405,8 +3405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3419,16 +3419,16 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D1" s="1">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="E1" s="1">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="F1" s="1">
         <v>0.1</v>
@@ -4677,7 +4677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E119D8D-D7FD-46DB-8300-FC3B5CEFAAC8}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:Y2"/>
     </sheetView>
   </sheetViews>

--- a/data/CS1_3/Market Data/CS1_market_data_2020.xlsx
+++ b/data/CS1_3/Market Data/CS1_market_data_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65C26AD-6715-440D-B96C-5399BD5350EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9590418-D29B-4FDD-9C3C-71497A7A07EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2544" yWindow="2544" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -162,372 +162,298 @@
       <sheetData sheetId="1">
         <row r="2">
           <cell r="B2">
-            <v>178.51022176578198</v>
+            <v>33</v>
           </cell>
           <cell r="C2">
-            <v>170.09531756474857</v>
+            <v>25.9</v>
           </cell>
           <cell r="D2">
-            <v>166.56503738887642</v>
+            <v>25.8</v>
           </cell>
           <cell r="E2">
-            <v>161.7510189672326</v>
+            <v>25.8</v>
           </cell>
           <cell r="F2">
-            <v>163.35569177444719</v>
+            <v>25.6</v>
           </cell>
           <cell r="G2">
-            <v>170.26862222792772</v>
+            <v>25.6</v>
           </cell>
           <cell r="H2">
-            <v>184.75560833146122</v>
+            <v>24.83</v>
           </cell>
           <cell r="I2">
-            <v>191.65570140248403</v>
+            <v>24.83</v>
           </cell>
           <cell r="J2">
-            <v>200</v>
+            <v>24.83</v>
           </cell>
           <cell r="K2">
-            <v>189.62739497416479</v>
+            <v>24.5</v>
           </cell>
           <cell r="L2">
-            <v>185.32045315960079</v>
+            <v>24.5</v>
           </cell>
           <cell r="M2">
-            <v>168.31092140312595</v>
+            <v>24.83</v>
           </cell>
           <cell r="N2">
-            <v>163.65095157097468</v>
+            <v>25</v>
           </cell>
           <cell r="O2">
-            <v>139.86328187682534</v>
+            <v>25.6</v>
           </cell>
           <cell r="P2">
-            <v>145.51173015822073</v>
+            <v>25.43</v>
           </cell>
           <cell r="Q2">
-            <v>131.94903559164285</v>
+            <v>24</v>
           </cell>
           <cell r="R2">
-            <v>128.37382457716873</v>
+            <v>22.1</v>
           </cell>
           <cell r="S2">
-            <v>127.69344330690973</v>
+            <v>21.4</v>
           </cell>
           <cell r="T2">
-            <v>129.37514040887064</v>
+            <v>24.83</v>
           </cell>
           <cell r="U2">
-            <v>146.94309830225617</v>
+            <v>25.2</v>
           </cell>
           <cell r="V2">
-            <v>178.09942552713505</v>
+            <v>25.6</v>
           </cell>
           <cell r="W2">
-            <v>177.86193395166728</v>
+            <v>29.93</v>
           </cell>
           <cell r="X2">
-            <v>168.41362046278766</v>
+            <v>32.93</v>
           </cell>
           <cell r="Y2">
-            <v>160.20411438107772</v>
+            <v>29.9</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>169.58471067749286</v>
+            <v>31.35</v>
           </cell>
           <cell r="C3">
-            <v>161.59055168651113</v>
+            <v>27.68</v>
           </cell>
           <cell r="D3">
-            <v>158.2367855194326</v>
+            <v>26.73</v>
           </cell>
           <cell r="E3">
-            <v>153.66346801887096</v>
+            <v>26.51</v>
           </cell>
           <cell r="F3">
-            <v>155.18790718572484</v>
+            <v>26.54</v>
           </cell>
           <cell r="G3">
-            <v>161.75519111653134</v>
+            <v>27.59</v>
           </cell>
           <cell r="H3">
-            <v>175.51782791488816</v>
+            <v>33.799999999999997</v>
           </cell>
           <cell r="I3">
-            <v>182.07291633235982</v>
+            <v>38.19</v>
           </cell>
           <cell r="J3">
-            <v>190</v>
+            <v>38.700000000000003</v>
           </cell>
           <cell r="K3">
-            <v>180.14602522545653</v>
+            <v>38.43</v>
           </cell>
           <cell r="L3">
-            <v>176.05443050162074</v>
+            <v>38.24</v>
           </cell>
           <cell r="M3">
-            <v>159.89537533296965</v>
+            <v>38</v>
           </cell>
           <cell r="N3">
-            <v>155.46840399242595</v>
+            <v>38.43</v>
           </cell>
           <cell r="O3">
-            <v>132.87011778298407</v>
+            <v>38.47</v>
           </cell>
           <cell r="P3">
-            <v>138.23614365030969</v>
+            <v>38.700000000000003</v>
           </cell>
           <cell r="Q3">
-            <v>125.35158381206071</v>
+            <v>37.950000000000003</v>
           </cell>
           <cell r="R3">
-            <v>121.95513334831028</v>
+            <v>38.43</v>
           </cell>
           <cell r="S3">
-            <v>121.30877114156424</v>
+            <v>38.549999999999997</v>
           </cell>
           <cell r="T3">
-            <v>122.9063833884271</v>
+            <v>40.51</v>
           </cell>
           <cell r="U3">
-            <v>139.59594338714336</v>
+            <v>42.93</v>
           </cell>
           <cell r="V3">
-            <v>169.19445425077831</v>
+            <v>41.81</v>
           </cell>
           <cell r="W3">
-            <v>168.96883725408392</v>
+            <v>40.479999999999997</v>
           </cell>
           <cell r="X3">
-            <v>159.99293943964827</v>
+            <v>39.72</v>
           </cell>
           <cell r="Y3">
-            <v>152.19390866202383</v>
+            <v>37.950000000000003</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>187.43573285407109</v>
+            <v>33.159999999999997</v>
           </cell>
           <cell r="C4">
-            <v>178.600083442986</v>
+            <v>28.6</v>
           </cell>
           <cell r="D4">
-            <v>174.89328925832024</v>
+            <v>27</v>
           </cell>
           <cell r="E4">
-            <v>169.83856991559423</v>
+            <v>26.5</v>
           </cell>
           <cell r="F4">
-            <v>171.52347636316955</v>
+            <v>27.5</v>
           </cell>
           <cell r="G4">
-            <v>178.78205333932411</v>
+            <v>28.03</v>
           </cell>
           <cell r="H4">
-            <v>193.99338874803428</v>
+            <v>33</v>
           </cell>
           <cell r="I4">
-            <v>201.23848647260823</v>
+            <v>37.74</v>
           </cell>
           <cell r="J4">
-            <v>210</v>
+            <v>39.79</v>
           </cell>
           <cell r="K4">
-            <v>199.10876472287305</v>
+            <v>40.49</v>
           </cell>
           <cell r="L4">
-            <v>194.58647581758083</v>
+            <v>39.82</v>
           </cell>
           <cell r="M4">
-            <v>176.72646747328224</v>
+            <v>38.08</v>
           </cell>
           <cell r="N4">
-            <v>171.83349914952342</v>
+            <v>37.21</v>
           </cell>
           <cell r="O4">
-            <v>146.85644597066661</v>
+            <v>34.619999999999997</v>
           </cell>
           <cell r="P4">
-            <v>152.78731666613177</v>
+            <v>33.18</v>
           </cell>
           <cell r="Q4">
-            <v>138.546487371225</v>
+            <v>30</v>
           </cell>
           <cell r="R4">
-            <v>134.79251580602718</v>
+            <v>29</v>
           </cell>
           <cell r="S4">
-            <v>134.07811547225521</v>
+            <v>30.22</v>
           </cell>
           <cell r="T4">
-            <v>135.84389742931418</v>
+            <v>32.479999999999997</v>
           </cell>
           <cell r="U4">
-            <v>154.29025321736898</v>
+            <v>36.200000000000003</v>
           </cell>
           <cell r="V4">
-            <v>187.0043968034918</v>
+            <v>41.7</v>
           </cell>
           <cell r="W4">
-            <v>186.75503064925064</v>
+            <v>43.82</v>
           </cell>
           <cell r="X4">
-            <v>176.83430148592706</v>
+            <v>42.23</v>
           </cell>
           <cell r="Y4">
-            <v>168.2143201001316</v>
+            <v>37.57</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>160.65919958920378</v>
+            <v>39.9</v>
           </cell>
           <cell r="C5">
-            <v>153.08578580827373</v>
+            <v>38.24</v>
           </cell>
           <cell r="D5">
-            <v>149.90853364998878</v>
+            <v>35.44</v>
           </cell>
           <cell r="E5">
-            <v>145.57591707050935</v>
+            <v>34.299999999999997</v>
           </cell>
           <cell r="F5">
-            <v>147.02012259700248</v>
+            <v>34.15</v>
           </cell>
           <cell r="G5">
-            <v>153.24176000513495</v>
+            <v>34.03</v>
           </cell>
           <cell r="H5">
-            <v>166.2800474983151</v>
+            <v>34.31</v>
           </cell>
           <cell r="I5">
-            <v>172.49013126223562</v>
+            <v>37.020000000000003</v>
           </cell>
           <cell r="J5">
-            <v>180</v>
+            <v>39.76</v>
           </cell>
           <cell r="K5">
-            <v>170.66465547674832</v>
+            <v>40.39</v>
           </cell>
           <cell r="L5">
-            <v>166.78840784364073</v>
+            <v>40.29</v>
           </cell>
           <cell r="M5">
-            <v>151.47982926281335</v>
+            <v>39.549999999999997</v>
           </cell>
           <cell r="N5">
-            <v>147.28585641387721</v>
+            <v>39.619999999999997</v>
           </cell>
           <cell r="O5">
-            <v>125.87695368914281</v>
+            <v>36.97</v>
           </cell>
           <cell r="P5">
-            <v>130.96055714239867</v>
+            <v>35.770000000000003</v>
           </cell>
           <cell r="Q5">
-            <v>118.75413203247857</v>
+            <v>34.5</v>
           </cell>
           <cell r="R5">
-            <v>115.53644211945186</v>
+            <v>34.4</v>
           </cell>
           <cell r="S5">
-            <v>114.92409897621876</v>
+            <v>35.24</v>
           </cell>
           <cell r="T5">
-            <v>116.43762636798357</v>
+            <v>40.619999999999997</v>
           </cell>
           <cell r="U5">
-            <v>132.24878847203055</v>
+            <v>51.02</v>
           </cell>
           <cell r="V5">
-            <v>160.28948297442156</v>
+            <v>51.05</v>
           </cell>
           <cell r="W5">
-            <v>160.07574055650056</v>
+            <v>50.04</v>
           </cell>
           <cell r="X5">
-            <v>151.5722584165089</v>
+            <v>46.51</v>
           </cell>
           <cell r="Y5">
-            <v>144.18370294296994</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>196.3612439423602</v>
-          </cell>
-          <cell r="C6">
-            <v>187.10484932122344</v>
-          </cell>
-          <cell r="D6">
-            <v>183.22154112776408</v>
-          </cell>
-          <cell r="E6">
-            <v>177.92612086395587</v>
-          </cell>
-          <cell r="F6">
-            <v>179.69126095189193</v>
-          </cell>
-          <cell r="G6">
-            <v>187.29548445072052</v>
-          </cell>
-          <cell r="H6">
-            <v>203.23116916460737</v>
-          </cell>
-          <cell r="I6">
-            <v>210.82127154273243</v>
-          </cell>
-          <cell r="J6">
-            <v>220.00000000000003</v>
-          </cell>
-          <cell r="K6">
-            <v>208.59013447158128</v>
-          </cell>
-          <cell r="L6">
-            <v>203.85249847556088</v>
-          </cell>
-          <cell r="M6">
-            <v>185.14201354343857</v>
-          </cell>
-          <cell r="N6">
-            <v>180.01604672807215</v>
-          </cell>
-          <cell r="O6">
-            <v>153.84961006450789</v>
-          </cell>
-          <cell r="P6">
-            <v>160.06290317404282</v>
-          </cell>
-          <cell r="Q6">
-            <v>145.14393915080714</v>
-          </cell>
-          <cell r="R6">
-            <v>141.21120703488563</v>
-          </cell>
-          <cell r="S6">
-            <v>140.46278763760071</v>
-          </cell>
-          <cell r="T6">
-            <v>142.3126544497577</v>
-          </cell>
-          <cell r="U6">
-            <v>161.6374081324818</v>
-          </cell>
-          <cell r="V6">
-            <v>195.90936807984858</v>
-          </cell>
-          <cell r="W6">
-            <v>195.64812734683403</v>
-          </cell>
-          <cell r="X6">
-            <v>185.25498250906645</v>
-          </cell>
-          <cell r="Y6">
-            <v>176.22452581918552</v>
+            <v>40.97</v>
           </cell>
         </row>
       </sheetData>
@@ -1650,744 +1576,448 @@
       <sheetData sheetId="5">
         <row r="2">
           <cell r="B2">
-            <v>178.51022176578198</v>
+            <v>31.35</v>
           </cell>
           <cell r="C2">
-            <v>170.09531756474857</v>
+            <v>27.68</v>
           </cell>
           <cell r="D2">
-            <v>166.56503738887642</v>
+            <v>26.73</v>
           </cell>
           <cell r="E2">
-            <v>161.7510189672326</v>
+            <v>26.51</v>
           </cell>
           <cell r="F2">
-            <v>163.35569177444719</v>
+            <v>26.54</v>
           </cell>
           <cell r="G2">
-            <v>170.26862222792772</v>
+            <v>27.59</v>
           </cell>
           <cell r="H2">
-            <v>184.75560833146122</v>
+            <v>33.799999999999997</v>
           </cell>
           <cell r="I2">
-            <v>191.65570140248403</v>
+            <v>38.19</v>
           </cell>
           <cell r="J2">
-            <v>200</v>
+            <v>38.700000000000003</v>
           </cell>
           <cell r="K2">
-            <v>189.62739497416479</v>
+            <v>38.43</v>
           </cell>
           <cell r="L2">
-            <v>185.32045315960079</v>
+            <v>38.24</v>
           </cell>
           <cell r="M2">
-            <v>168.31092140312595</v>
+            <v>38</v>
           </cell>
           <cell r="N2">
-            <v>163.65095157097468</v>
+            <v>38.43</v>
           </cell>
           <cell r="O2">
-            <v>139.86328187682534</v>
+            <v>38.47</v>
           </cell>
           <cell r="P2">
-            <v>145.51173015822073</v>
+            <v>38.700000000000003</v>
           </cell>
           <cell r="Q2">
-            <v>131.94903559164285</v>
+            <v>37.950000000000003</v>
           </cell>
           <cell r="R2">
-            <v>128.37382457716873</v>
+            <v>38.43</v>
           </cell>
           <cell r="S2">
-            <v>127.69344330690973</v>
+            <v>38.549999999999997</v>
           </cell>
           <cell r="T2">
-            <v>129.37514040887064</v>
+            <v>40.51</v>
           </cell>
           <cell r="U2">
-            <v>146.94309830225617</v>
+            <v>42.93</v>
           </cell>
           <cell r="V2">
-            <v>178.09942552713505</v>
+            <v>41.81</v>
           </cell>
           <cell r="W2">
-            <v>177.86193395166728</v>
+            <v>40.479999999999997</v>
           </cell>
           <cell r="X2">
-            <v>168.41362046278766</v>
+            <v>39.72</v>
           </cell>
           <cell r="Y2">
-            <v>160.20411438107772</v>
+            <v>37.950000000000003</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>169.58471067749286</v>
+            <v>33.159999999999997</v>
           </cell>
           <cell r="C3">
-            <v>161.59055168651113</v>
+            <v>28.6</v>
           </cell>
           <cell r="D3">
-            <v>158.2367855194326</v>
+            <v>27</v>
           </cell>
           <cell r="E3">
-            <v>153.66346801887096</v>
+            <v>26.5</v>
           </cell>
           <cell r="F3">
-            <v>155.18790718572484</v>
+            <v>27.5</v>
           </cell>
           <cell r="G3">
-            <v>161.75519111653134</v>
+            <v>28.03</v>
           </cell>
           <cell r="H3">
-            <v>175.51782791488816</v>
+            <v>33</v>
           </cell>
           <cell r="I3">
-            <v>182.07291633235982</v>
+            <v>37.74</v>
           </cell>
           <cell r="J3">
-            <v>190</v>
+            <v>39.79</v>
           </cell>
           <cell r="K3">
-            <v>180.14602522545653</v>
+            <v>40.49</v>
           </cell>
           <cell r="L3">
-            <v>176.05443050162074</v>
+            <v>39.82</v>
           </cell>
           <cell r="M3">
-            <v>159.89537533296965</v>
+            <v>38.08</v>
           </cell>
           <cell r="N3">
-            <v>155.46840399242595</v>
+            <v>37.21</v>
           </cell>
           <cell r="O3">
-            <v>132.87011778298407</v>
+            <v>34.619999999999997</v>
           </cell>
           <cell r="P3">
-            <v>138.23614365030969</v>
+            <v>33.18</v>
           </cell>
           <cell r="Q3">
-            <v>125.35158381206071</v>
+            <v>30</v>
           </cell>
           <cell r="R3">
-            <v>121.95513334831028</v>
+            <v>29</v>
           </cell>
           <cell r="S3">
-            <v>121.30877114156424</v>
+            <v>30.22</v>
           </cell>
           <cell r="T3">
-            <v>122.9063833884271</v>
+            <v>32.479999999999997</v>
           </cell>
           <cell r="U3">
-            <v>139.59594338714336</v>
+            <v>36.200000000000003</v>
           </cell>
           <cell r="V3">
-            <v>169.19445425077831</v>
+            <v>41.7</v>
           </cell>
           <cell r="W3">
-            <v>168.96883725408392</v>
+            <v>43.82</v>
           </cell>
           <cell r="X3">
-            <v>159.99293943964827</v>
+            <v>42.23</v>
           </cell>
           <cell r="Y3">
-            <v>152.19390866202383</v>
+            <v>37.57</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>187.43573285407109</v>
+            <v>39.9</v>
           </cell>
           <cell r="C4">
-            <v>178.600083442986</v>
+            <v>38.24</v>
           </cell>
           <cell r="D4">
-            <v>174.89328925832024</v>
+            <v>35.44</v>
           </cell>
           <cell r="E4">
-            <v>169.83856991559423</v>
+            <v>34.299999999999997</v>
           </cell>
           <cell r="F4">
-            <v>171.52347636316955</v>
+            <v>34.15</v>
           </cell>
           <cell r="G4">
-            <v>178.78205333932411</v>
+            <v>34.03</v>
           </cell>
           <cell r="H4">
-            <v>193.99338874803428</v>
+            <v>34.31</v>
           </cell>
           <cell r="I4">
-            <v>201.23848647260823</v>
+            <v>37.020000000000003</v>
           </cell>
           <cell r="J4">
-            <v>210</v>
+            <v>39.76</v>
           </cell>
           <cell r="K4">
-            <v>199.10876472287305</v>
+            <v>40.39</v>
           </cell>
           <cell r="L4">
-            <v>194.58647581758083</v>
+            <v>40.29</v>
           </cell>
           <cell r="M4">
-            <v>176.72646747328224</v>
+            <v>39.549999999999997</v>
           </cell>
           <cell r="N4">
-            <v>171.83349914952342</v>
+            <v>39.619999999999997</v>
           </cell>
           <cell r="O4">
-            <v>146.85644597066661</v>
+            <v>36.97</v>
           </cell>
           <cell r="P4">
-            <v>152.78731666613177</v>
+            <v>35.770000000000003</v>
           </cell>
           <cell r="Q4">
-            <v>138.546487371225</v>
+            <v>34.5</v>
           </cell>
           <cell r="R4">
-            <v>134.79251580602718</v>
+            <v>34.4</v>
           </cell>
           <cell r="S4">
-            <v>134.07811547225521</v>
+            <v>35.24</v>
           </cell>
           <cell r="T4">
-            <v>135.84389742931418</v>
+            <v>40.619999999999997</v>
           </cell>
           <cell r="U4">
-            <v>154.29025321736898</v>
+            <v>51.02</v>
           </cell>
           <cell r="V4">
-            <v>187.0043968034918</v>
+            <v>51.05</v>
           </cell>
           <cell r="W4">
-            <v>186.75503064925064</v>
+            <v>50.04</v>
           </cell>
           <cell r="X4">
-            <v>176.83430148592706</v>
+            <v>46.51</v>
           </cell>
           <cell r="Y4">
-            <v>168.2143201001316</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>160.65919958920378</v>
-          </cell>
-          <cell r="C5">
-            <v>153.08578580827373</v>
-          </cell>
-          <cell r="D5">
-            <v>149.90853364998878</v>
-          </cell>
-          <cell r="E5">
-            <v>145.57591707050935</v>
-          </cell>
-          <cell r="F5">
-            <v>147.02012259700248</v>
-          </cell>
-          <cell r="G5">
-            <v>153.24176000513495</v>
-          </cell>
-          <cell r="H5">
-            <v>166.2800474983151</v>
-          </cell>
-          <cell r="I5">
-            <v>172.49013126223562</v>
-          </cell>
-          <cell r="J5">
-            <v>180</v>
-          </cell>
-          <cell r="K5">
-            <v>170.66465547674832</v>
-          </cell>
-          <cell r="L5">
-            <v>166.78840784364073</v>
-          </cell>
-          <cell r="M5">
-            <v>151.47982926281335</v>
-          </cell>
-          <cell r="N5">
-            <v>147.28585641387721</v>
-          </cell>
-          <cell r="O5">
-            <v>125.87695368914281</v>
-          </cell>
-          <cell r="P5">
-            <v>130.96055714239867</v>
-          </cell>
-          <cell r="Q5">
-            <v>118.75413203247857</v>
-          </cell>
-          <cell r="R5">
-            <v>115.53644211945186</v>
-          </cell>
-          <cell r="S5">
-            <v>114.92409897621876</v>
-          </cell>
-          <cell r="T5">
-            <v>116.43762636798357</v>
-          </cell>
-          <cell r="U5">
-            <v>132.24878847203055</v>
-          </cell>
-          <cell r="V5">
-            <v>160.28948297442156</v>
-          </cell>
-          <cell r="W5">
-            <v>160.07574055650056</v>
-          </cell>
-          <cell r="X5">
-            <v>151.5722584165089</v>
-          </cell>
-          <cell r="Y5">
-            <v>144.18370294296994</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>196.3612439423602</v>
-          </cell>
-          <cell r="C6">
-            <v>187.10484932122344</v>
-          </cell>
-          <cell r="D6">
-            <v>183.22154112776408</v>
-          </cell>
-          <cell r="E6">
-            <v>177.92612086395587</v>
-          </cell>
-          <cell r="F6">
-            <v>179.69126095189193</v>
-          </cell>
-          <cell r="G6">
-            <v>187.29548445072052</v>
-          </cell>
-          <cell r="H6">
-            <v>203.23116916460737</v>
-          </cell>
-          <cell r="I6">
-            <v>210.82127154273243</v>
-          </cell>
-          <cell r="J6">
-            <v>220.00000000000003</v>
-          </cell>
-          <cell r="K6">
-            <v>208.59013447158128</v>
-          </cell>
-          <cell r="L6">
-            <v>203.85249847556088</v>
-          </cell>
-          <cell r="M6">
-            <v>185.14201354343857</v>
-          </cell>
-          <cell r="N6">
-            <v>180.01604672807215</v>
-          </cell>
-          <cell r="O6">
-            <v>153.84961006450789</v>
-          </cell>
-          <cell r="P6">
-            <v>160.06290317404282</v>
-          </cell>
-          <cell r="Q6">
-            <v>145.14393915080714</v>
-          </cell>
-          <cell r="R6">
-            <v>141.21120703488563</v>
-          </cell>
-          <cell r="S6">
-            <v>140.46278763760071</v>
-          </cell>
-          <cell r="T6">
-            <v>142.3126544497577</v>
-          </cell>
-          <cell r="U6">
-            <v>161.6374081324818</v>
-          </cell>
-          <cell r="V6">
-            <v>195.90936807984858</v>
-          </cell>
-          <cell r="W6">
-            <v>195.64812734683403</v>
-          </cell>
-          <cell r="X6">
-            <v>185.25498250906645</v>
-          </cell>
-          <cell r="Y6">
-            <v>176.22452581918552</v>
+            <v>40.97</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="2">
           <cell r="B2">
-            <v>35.702044353156396</v>
+            <v>13.5</v>
           </cell>
           <cell r="C2">
-            <v>35.702044353156396</v>
+            <v>14.88</v>
           </cell>
           <cell r="D2">
-            <v>36</v>
+            <v>8.92</v>
           </cell>
           <cell r="E2">
-            <v>36.4</v>
+            <v>8.93</v>
           </cell>
           <cell r="F2">
-            <v>35.702044353156396</v>
+            <v>8.93</v>
           </cell>
           <cell r="G2">
-            <v>40</v>
+            <v>8.8800000000000008</v>
           </cell>
           <cell r="H2">
-            <v>36.4</v>
+            <v>12.54</v>
           </cell>
           <cell r="I2">
-            <v>35.6</v>
+            <v>10.18</v>
           </cell>
           <cell r="J2">
-            <v>34.4</v>
+            <v>10.37</v>
           </cell>
           <cell r="K2">
-            <v>33.6</v>
+            <v>9.5</v>
           </cell>
           <cell r="L2">
-            <v>32.799999999999997</v>
+            <v>7.29</v>
           </cell>
           <cell r="M2">
-            <v>32</v>
+            <v>7.76</v>
           </cell>
           <cell r="N2">
-            <v>32.400000000000006</v>
+            <v>8.52</v>
           </cell>
           <cell r="O2">
-            <v>32.799999999999997</v>
+            <v>7.91</v>
           </cell>
           <cell r="P2">
-            <v>33.199999999999996</v>
+            <v>7.86</v>
           </cell>
           <cell r="Q2">
-            <v>33.6</v>
+            <v>7.35</v>
           </cell>
           <cell r="R2">
-            <v>33.199999999999996</v>
+            <v>9.0500000000000007</v>
           </cell>
           <cell r="S2">
-            <v>33.6</v>
+            <v>7.44</v>
           </cell>
           <cell r="T2">
-            <v>33.199999999999996</v>
+            <v>4.84</v>
           </cell>
           <cell r="U2">
-            <v>33.6</v>
+            <v>4.2699999999999996</v>
           </cell>
           <cell r="V2">
-            <v>33.199999999999996</v>
+            <v>4.2699999999999996</v>
           </cell>
           <cell r="W2">
-            <v>32.799999999999997</v>
+            <v>4.9000000000000004</v>
           </cell>
           <cell r="X2">
-            <v>34</v>
+            <v>8.4</v>
           </cell>
           <cell r="Y2">
-            <v>35.200000000000003</v>
+            <v>9.5</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>33.916942135498573</v>
+            <v>10.64</v>
           </cell>
           <cell r="C3">
-            <v>33.916942135498573</v>
+            <v>9.02</v>
           </cell>
           <cell r="D3">
-            <v>34.199999999999996</v>
+            <v>5.51</v>
           </cell>
           <cell r="E3">
-            <v>34.58</v>
+            <v>5.7</v>
           </cell>
           <cell r="F3">
-            <v>33.916942135498573</v>
+            <v>5.68</v>
           </cell>
           <cell r="G3">
-            <v>38</v>
+            <v>5.7</v>
           </cell>
           <cell r="H3">
-            <v>34.58</v>
+            <v>11.33</v>
           </cell>
           <cell r="I3">
-            <v>33.82</v>
+            <v>5.98</v>
           </cell>
           <cell r="J3">
-            <v>32.68</v>
+            <v>8.57</v>
           </cell>
           <cell r="K3">
-            <v>31.919999999999998</v>
+            <v>4.71</v>
           </cell>
           <cell r="L3">
-            <v>31.159999999999997</v>
+            <v>9.1</v>
           </cell>
           <cell r="M3">
-            <v>30.4</v>
+            <v>7.08</v>
           </cell>
           <cell r="N3">
-            <v>30.780000000000005</v>
+            <v>7.32</v>
           </cell>
           <cell r="O3">
-            <v>31.159999999999997</v>
+            <v>5.7</v>
           </cell>
           <cell r="P3">
-            <v>31.539999999999996</v>
+            <v>5.7</v>
           </cell>
           <cell r="Q3">
-            <v>31.919999999999998</v>
+            <v>4.84</v>
           </cell>
           <cell r="R3">
-            <v>31.539999999999996</v>
+            <v>4.88</v>
           </cell>
           <cell r="S3">
-            <v>31.919999999999998</v>
+            <v>4.9400000000000004</v>
           </cell>
           <cell r="T3">
-            <v>31.539999999999996</v>
+            <v>5.68</v>
           </cell>
           <cell r="U3">
-            <v>31.919999999999998</v>
+            <v>4.75</v>
           </cell>
           <cell r="V3">
-            <v>31.539999999999996</v>
+            <v>3.85</v>
           </cell>
           <cell r="W3">
-            <v>31.159999999999997</v>
+            <v>5.6</v>
           </cell>
           <cell r="X3">
-            <v>32.299999999999997</v>
+            <v>6.65</v>
           </cell>
           <cell r="Y3">
-            <v>33.44</v>
+            <v>9.86</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>37.487146570814218</v>
+            <v>6.17</v>
           </cell>
           <cell r="C4">
-            <v>37.487146570814218</v>
+            <v>7.51</v>
           </cell>
           <cell r="D4">
-            <v>37.800000000000004</v>
+            <v>7.6</v>
           </cell>
           <cell r="E4">
-            <v>38.22</v>
+            <v>7.89</v>
           </cell>
           <cell r="F4">
-            <v>37.487146570814218</v>
+            <v>7.98</v>
           </cell>
           <cell r="G4">
-            <v>42</v>
+            <v>8.44</v>
           </cell>
           <cell r="H4">
-            <v>38.22</v>
+            <v>7.6</v>
           </cell>
           <cell r="I4">
-            <v>37.380000000000003</v>
+            <v>7.34</v>
           </cell>
           <cell r="J4">
-            <v>36.119999999999997</v>
+            <v>6.54</v>
           </cell>
           <cell r="K4">
-            <v>35.28</v>
+            <v>7.6</v>
           </cell>
           <cell r="L4">
-            <v>34.44</v>
+            <v>8.44</v>
           </cell>
           <cell r="M4">
-            <v>33.6</v>
+            <v>6.49</v>
           </cell>
           <cell r="N4">
-            <v>34.02000000000001</v>
+            <v>6.44</v>
           </cell>
           <cell r="O4">
-            <v>34.44</v>
+            <v>6.54</v>
           </cell>
           <cell r="P4">
-            <v>34.86</v>
+            <v>7.6</v>
           </cell>
           <cell r="Q4">
-            <v>35.28</v>
+            <v>7.6</v>
           </cell>
           <cell r="R4">
-            <v>34.86</v>
+            <v>7.6</v>
           </cell>
           <cell r="S4">
-            <v>35.28</v>
+            <v>7.6</v>
           </cell>
           <cell r="T4">
-            <v>34.86</v>
+            <v>5.78</v>
           </cell>
           <cell r="U4">
-            <v>35.28</v>
+            <v>1.5</v>
           </cell>
           <cell r="V4">
-            <v>34.86</v>
+            <v>3.8</v>
           </cell>
           <cell r="W4">
-            <v>34.44</v>
+            <v>4.18</v>
           </cell>
           <cell r="X4">
-            <v>35.700000000000003</v>
+            <v>4.28</v>
           </cell>
           <cell r="Y4">
-            <v>36.960000000000008</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>32.131839917840757</v>
-          </cell>
-          <cell r="C5">
-            <v>32.131839917840757</v>
-          </cell>
-          <cell r="D5">
-            <v>32.4</v>
-          </cell>
-          <cell r="E5">
-            <v>32.76</v>
-          </cell>
-          <cell r="F5">
-            <v>32.131839917840757</v>
-          </cell>
-          <cell r="G5">
-            <v>36</v>
-          </cell>
-          <cell r="H5">
-            <v>32.76</v>
-          </cell>
-          <cell r="I5">
-            <v>32.04</v>
-          </cell>
-          <cell r="J5">
-            <v>30.96</v>
-          </cell>
-          <cell r="K5">
-            <v>30.240000000000002</v>
-          </cell>
-          <cell r="L5">
-            <v>29.52</v>
-          </cell>
-          <cell r="M5">
-            <v>28.8</v>
-          </cell>
-          <cell r="N5">
-            <v>29.160000000000007</v>
-          </cell>
-          <cell r="O5">
-            <v>29.52</v>
-          </cell>
-          <cell r="P5">
-            <v>29.879999999999995</v>
-          </cell>
-          <cell r="Q5">
-            <v>30.240000000000002</v>
-          </cell>
-          <cell r="R5">
-            <v>29.879999999999995</v>
-          </cell>
-          <cell r="S5">
-            <v>30.240000000000002</v>
-          </cell>
-          <cell r="T5">
-            <v>29.879999999999995</v>
-          </cell>
-          <cell r="U5">
-            <v>30.240000000000002</v>
-          </cell>
-          <cell r="V5">
-            <v>29.879999999999995</v>
-          </cell>
-          <cell r="W5">
-            <v>29.52</v>
-          </cell>
-          <cell r="X5">
-            <v>30.6</v>
-          </cell>
-          <cell r="Y5">
-            <v>31.680000000000003</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>39.272248788472041</v>
-          </cell>
-          <cell r="C6">
-            <v>39.272248788472041</v>
-          </cell>
-          <cell r="D6">
-            <v>39.6</v>
-          </cell>
-          <cell r="E6">
-            <v>40.04</v>
-          </cell>
-          <cell r="F6">
-            <v>39.272248788472041</v>
-          </cell>
-          <cell r="G6">
-            <v>44</v>
-          </cell>
-          <cell r="H6">
-            <v>40.04</v>
-          </cell>
-          <cell r="I6">
-            <v>39.160000000000004</v>
-          </cell>
-          <cell r="J6">
-            <v>37.840000000000003</v>
-          </cell>
-          <cell r="K6">
-            <v>36.960000000000008</v>
-          </cell>
-          <cell r="L6">
-            <v>36.08</v>
-          </cell>
-          <cell r="M6">
-            <v>35.200000000000003</v>
-          </cell>
-          <cell r="N6">
-            <v>35.640000000000008</v>
-          </cell>
-          <cell r="O6">
-            <v>36.08</v>
-          </cell>
-          <cell r="P6">
-            <v>36.519999999999996</v>
-          </cell>
-          <cell r="Q6">
-            <v>36.960000000000008</v>
-          </cell>
-          <cell r="R6">
-            <v>36.519999999999996</v>
-          </cell>
-          <cell r="S6">
-            <v>36.960000000000008</v>
-          </cell>
-          <cell r="T6">
-            <v>36.519999999999996</v>
-          </cell>
-          <cell r="U6">
-            <v>36.960000000000008</v>
-          </cell>
-          <cell r="V6">
-            <v>36.519999999999996</v>
-          </cell>
-          <cell r="W6">
-            <v>36.08</v>
-          </cell>
-          <cell r="X6">
-            <v>37.400000000000006</v>
-          </cell>
-          <cell r="Y6">
-            <v>38.720000000000006</v>
+            <v>6.54</v>
           </cell>
         </row>
       </sheetData>
@@ -3405,16 +3035,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3438,7 +3068,7 @@
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3456,13 +3086,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E73F7F-45E0-423B-A01B-B6DF6F75CAB7}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3539,509 +3169,509 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[1]Energy, Winter'!B2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>178.51022176578198</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Energy, Winter'!C2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>170.09531756474857</v>
+        <v>25.9</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Energy, Winter'!D2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>166.56503738887642</v>
+        <v>25.8</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Energy, Winter'!E2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>161.7510189672326</v>
+        <v>25.8</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Energy, Winter'!F2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>163.35569177444719</v>
+        <v>25.6</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Energy, Winter'!G2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>170.26862222792772</v>
+        <v>25.6</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Energy, Winter'!H2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>184.75560833146122</v>
+        <v>24.83</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Energy, Winter'!I2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>191.65570140248403</v>
+        <v>24.83</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Energy, Winter'!J2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>200</v>
+        <v>24.83</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Energy, Winter'!K2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>189.62739497416479</v>
+        <v>24.5</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Energy, Winter'!L2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>185.32045315960079</v>
+        <v>24.5</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Energy, Winter'!M2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>168.31092140312595</v>
+        <v>24.83</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Energy, Winter'!N2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>163.65095157097468</v>
+        <v>25</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Energy, Winter'!O2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>139.86328187682534</v>
+        <v>25.6</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Energy, Winter'!P2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>145.51173015822073</v>
+        <v>25.43</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Energy, Winter'!Q2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>131.94903559164285</v>
+        <v>24</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Energy, Winter'!R2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>128.37382457716873</v>
+        <v>22.1</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Energy, Winter'!S2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>127.69344330690973</v>
+        <v>21.4</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Energy, Winter'!T2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>129.37514040887064</v>
+        <v>24.83</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Energy, Winter'!U2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>146.94309830225617</v>
+        <v>25.2</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Energy, Winter'!V2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>178.09942552713505</v>
+        <v>25.6</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Energy, Winter'!W2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>177.86193395166728</v>
+        <v>29.93</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Energy, Winter'!X2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>168.41362046278766</v>
+        <v>32.93</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Energy, Winter'!Y2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>160.20411438107772</v>
+        <v>29.9</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[1]Energy, Winter'!B3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>169.58471067749286</v>
+        <v>31.35</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Energy, Winter'!C3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>161.59055168651113</v>
+        <v>27.68</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Energy, Winter'!D3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>158.2367855194326</v>
+        <v>26.73</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Energy, Winter'!E3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>153.66346801887096</v>
+        <v>26.51</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Energy, Winter'!F3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>155.18790718572484</v>
+        <v>26.54</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Energy, Winter'!G3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>161.75519111653134</v>
+        <v>27.59</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Energy, Winter'!H3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>175.51782791488816</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Energy, Winter'!I3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>182.07291633235982</v>
+        <v>38.19</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Energy, Winter'!J3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>190</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Energy, Winter'!K3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>180.14602522545653</v>
+        <v>38.43</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Energy, Winter'!L3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>176.05443050162074</v>
+        <v>38.24</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Energy, Winter'!M3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>159.89537533296965</v>
+        <v>38</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Energy, Winter'!N3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>155.46840399242595</v>
+        <v>38.43</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Energy, Winter'!O3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>132.87011778298407</v>
+        <v>38.47</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Energy, Winter'!P3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>138.23614365030969</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Energy, Winter'!Q3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>125.35158381206071</v>
+        <v>37.950000000000003</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Energy, Winter'!R3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>121.95513334831028</v>
+        <v>38.43</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Energy, Winter'!S3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>121.30877114156424</v>
+        <v>38.549999999999997</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Energy, Winter'!T3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>122.9063833884271</v>
+        <v>40.51</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Energy, Winter'!U3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>139.59594338714336</v>
+        <v>42.93</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Energy, Winter'!V3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>169.19445425077831</v>
+        <v>41.81</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Energy, Winter'!W3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>168.96883725408392</v>
+        <v>40.479999999999997</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Energy, Winter'!X3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>159.99293943964827</v>
+        <v>39.72</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Energy, Winter'!Y3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>152.19390866202383</v>
+        <v>37.950000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[1]Energy, Winter'!B4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>187.43573285407109</v>
+        <v>33.159999999999997</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Energy, Winter'!C4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>178.600083442986</v>
+        <v>28.6</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Energy, Winter'!D4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>174.89328925832024</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Energy, Winter'!E4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>169.83856991559423</v>
+        <v>26.5</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Energy, Winter'!F4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>171.52347636316955</v>
+        <v>27.5</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Energy, Winter'!G4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>178.78205333932411</v>
+        <v>28.03</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Energy, Winter'!H4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>193.99338874803428</v>
+        <v>33</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Energy, Winter'!I4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>201.23848647260823</v>
+        <v>37.74</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Energy, Winter'!J4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>210</v>
+        <v>39.79</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Energy, Winter'!K4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>199.10876472287305</v>
+        <v>40.49</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Energy, Winter'!L4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>194.58647581758083</v>
+        <v>39.82</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Energy, Winter'!M4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>176.72646747328224</v>
+        <v>38.08</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Energy, Winter'!N4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>171.83349914952342</v>
+        <v>37.21</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Energy, Winter'!O4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>146.85644597066661</v>
+        <v>34.619999999999997</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Energy, Winter'!P4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>152.78731666613177</v>
+        <v>33.18</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Energy, Winter'!Q4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>138.546487371225</v>
+        <v>30</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Energy, Winter'!R4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>134.79251580602718</v>
+        <v>29</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Energy, Winter'!S4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>134.07811547225521</v>
+        <v>30.22</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Energy, Winter'!T4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>135.84389742931418</v>
+        <v>32.479999999999997</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Energy, Winter'!U4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>154.29025321736898</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Energy, Winter'!V4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>187.0043968034918</v>
+        <v>41.7</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Energy, Winter'!W4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>186.75503064925064</v>
+        <v>43.82</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Energy, Winter'!X4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>176.83430148592706</v>
+        <v>42.23</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Energy, Winter'!Y4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>168.2143201001316</v>
+        <v>37.57</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <f>'[1]Energy, Winter'!B5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>160.65919958920378</v>
+        <v>39.9</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Energy, Winter'!C5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>153.08578580827373</v>
+        <v>38.24</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Energy, Winter'!D5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>149.90853364998878</v>
+        <v>35.44</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Energy, Winter'!E5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>145.57591707050935</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Energy, Winter'!F5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>147.02012259700248</v>
+        <v>34.15</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Energy, Winter'!G5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>153.24176000513495</v>
+        <v>34.03</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Energy, Winter'!H5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>166.2800474983151</v>
+        <v>34.31</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Energy, Winter'!I5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>172.49013126223562</v>
+        <v>37.020000000000003</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Energy, Winter'!J5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>180</v>
+        <v>39.76</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Energy, Winter'!K5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>170.66465547674832</v>
+        <v>40.39</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Energy, Winter'!L5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>166.78840784364073</v>
+        <v>40.29</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Energy, Winter'!M5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>151.47982926281335</v>
+        <v>39.549999999999997</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Energy, Winter'!N5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>147.28585641387721</v>
+        <v>39.619999999999997</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Energy, Winter'!O5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>125.87695368914281</v>
+        <v>36.97</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Energy, Winter'!P5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>130.96055714239867</v>
+        <v>35.770000000000003</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Energy, Winter'!Q5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>118.75413203247857</v>
+        <v>34.5</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Energy, Winter'!R5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>115.53644211945186</v>
+        <v>34.4</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Energy, Winter'!S5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>114.92409897621876</v>
+        <v>35.24</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Energy, Winter'!T5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>116.43762636798357</v>
+        <v>40.619999999999997</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Energy, Winter'!U5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>132.24878847203055</v>
+        <v>51.02</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Energy, Winter'!V5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>160.28948297442156</v>
+        <v>51.05</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Energy, Winter'!W5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>160.07574055650056</v>
+        <v>50.04</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Energy, Winter'!X5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>151.5722584165089</v>
+        <v>46.51</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Energy, Winter'!Y5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>144.18370294296994</v>
+        <v>40.97</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <f>'[1]Energy, Winter'!B6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>196.3612439423602</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Energy, Winter'!C6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>187.10484932122344</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Energy, Winter'!D6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>183.22154112776408</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Energy, Winter'!E6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>177.92612086395587</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Energy, Winter'!F6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>179.69126095189193</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Energy, Winter'!G6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>187.29548445072052</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Energy, Winter'!H6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>203.23116916460737</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Energy, Winter'!I6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>210.82127154273243</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Energy, Winter'!J6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>220.00000000000003</v>
+        <v>0</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Energy, Winter'!K6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>208.59013447158128</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Energy, Winter'!L6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>203.85249847556088</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Energy, Winter'!M6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>185.14201354343857</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Energy, Winter'!N6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>180.01604672807215</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Energy, Winter'!O6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>153.84961006450789</v>
+        <v>0</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Energy, Winter'!P6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>160.06290317404282</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Energy, Winter'!Q6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>145.14393915080714</v>
+        <v>0</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Energy, Winter'!R6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>141.21120703488563</v>
+        <v>0</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Energy, Winter'!S6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>140.46278763760071</v>
+        <v>0</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Energy, Winter'!T6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>142.3126544497577</v>
+        <v>0</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Energy, Winter'!U6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>161.6374081324818</v>
+        <v>0</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Energy, Winter'!V6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>195.90936807984858</v>
+        <v>0</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Energy, Winter'!W6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>195.64812734683403</v>
+        <v>0</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Energy, Winter'!X6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>185.25498250906645</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Energy, Winter'!Y6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>176.22452581918552</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4058,9 +3688,9 @@
       <selection activeCell="B2" sqref="B2:Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4137,7 +3767,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4238,7 +3868,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4339,7 +3969,7 @@
         <v>33.44</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4440,7 +4070,7 @@
         <v>36.960000000000008</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4541,7 +4171,7 @@
         <v>31.680000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4642,7 +4272,7 @@
         <v>38.720000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -4681,9 +4311,9 @@
       <selection activeCell="B2" sqref="B2:Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4760,7 +4390,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4861,7 +4491,7 @@
         <v>176.22452581918552</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4962,7 +4592,7 @@
         <v>167.41329952822622</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5063,7 +4693,7 @@
         <v>185.03575211014481</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5164,7 +4794,7 @@
         <v>158.60207323726698</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5278,9 +4908,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5357,7 +4987,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5458,7 +5088,7 @@
         <v>144.18370294296994</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5559,7 +5189,7 @@
         <v>136.97451779582144</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5660,7 +5290,7 @@
         <v>151.39288809011845</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5761,7 +5391,7 @@
         <v>129.76533264867297</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5875,9 +5505,9 @@
       <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5954,509 +5584,509 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[1]Energy, Summer'!B2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>178.51022176578198</v>
+        <v>31.35</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Energy, Summer'!C2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>170.09531756474857</v>
+        <v>27.68</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Energy, Summer'!D2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>166.56503738887642</v>
+        <v>26.73</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Energy, Summer'!E2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>161.7510189672326</v>
+        <v>26.51</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Energy, Summer'!F2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>163.35569177444719</v>
+        <v>26.54</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Energy, Summer'!G2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>170.26862222792772</v>
+        <v>27.59</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Energy, Summer'!H2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>184.75560833146122</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Energy, Summer'!I2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>191.65570140248403</v>
+        <v>38.19</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Energy, Summer'!J2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>200</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Energy, Summer'!K2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>189.62739497416479</v>
+        <v>38.43</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Energy, Summer'!L2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>185.32045315960079</v>
+        <v>38.24</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Energy, Summer'!M2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>168.31092140312595</v>
+        <v>38</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Energy, Summer'!N2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>163.65095157097468</v>
+        <v>38.43</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Energy, Summer'!O2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>139.86328187682534</v>
+        <v>38.47</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Energy, Summer'!P2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>145.51173015822073</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Energy, Summer'!Q2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>131.94903559164285</v>
+        <v>37.950000000000003</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Energy, Summer'!R2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>128.37382457716873</v>
+        <v>38.43</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Energy, Summer'!S2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>127.69344330690973</v>
+        <v>38.549999999999997</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Energy, Summer'!T2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>129.37514040887064</v>
+        <v>40.51</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Energy, Summer'!U2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>146.94309830225617</v>
+        <v>42.93</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Energy, Summer'!V2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>178.09942552713505</v>
+        <v>41.81</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Energy, Summer'!W2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>177.86193395166728</v>
+        <v>40.479999999999997</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Energy, Summer'!X2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>168.41362046278766</v>
+        <v>39.72</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Energy, Summer'!Y2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>160.20411438107772</v>
+        <v>37.950000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[1]Energy, Summer'!B3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>169.58471067749286</v>
+        <v>33.159999999999997</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Energy, Summer'!C3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>161.59055168651113</v>
+        <v>28.6</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Energy, Summer'!D3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>158.2367855194326</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Energy, Summer'!E3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>153.66346801887096</v>
+        <v>26.5</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Energy, Summer'!F3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>155.18790718572484</v>
+        <v>27.5</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Energy, Summer'!G3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>161.75519111653134</v>
+        <v>28.03</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Energy, Summer'!H3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>175.51782791488816</v>
+        <v>33</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Energy, Summer'!I3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>182.07291633235982</v>
+        <v>37.74</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Energy, Summer'!J3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>190</v>
+        <v>39.79</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Energy, Summer'!K3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>180.14602522545653</v>
+        <v>40.49</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Energy, Summer'!L3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>176.05443050162074</v>
+        <v>39.82</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Energy, Summer'!M3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>159.89537533296965</v>
+        <v>38.08</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Energy, Summer'!N3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>155.46840399242595</v>
+        <v>37.21</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Energy, Summer'!O3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>132.87011778298407</v>
+        <v>34.619999999999997</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Energy, Summer'!P3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>138.23614365030969</v>
+        <v>33.18</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Energy, Summer'!Q3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>125.35158381206071</v>
+        <v>30</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Energy, Summer'!R3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>121.95513334831028</v>
+        <v>29</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Energy, Summer'!S3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>121.30877114156424</v>
+        <v>30.22</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Energy, Summer'!T3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>122.9063833884271</v>
+        <v>32.479999999999997</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Energy, Summer'!U3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>139.59594338714336</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Energy, Summer'!V3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>169.19445425077831</v>
+        <v>41.7</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Energy, Summer'!W3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>168.96883725408392</v>
+        <v>43.82</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Energy, Summer'!X3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>159.99293943964827</v>
+        <v>42.23</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Energy, Summer'!Y3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>152.19390866202383</v>
+        <v>37.57</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[1]Energy, Summer'!B4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>187.43573285407109</v>
+        <v>39.9</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Energy, Summer'!C4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>178.600083442986</v>
+        <v>38.24</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Energy, Summer'!D4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>174.89328925832024</v>
+        <v>35.44</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Energy, Summer'!E4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>169.83856991559423</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Energy, Summer'!F4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>171.52347636316955</v>
+        <v>34.15</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Energy, Summer'!G4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>178.78205333932411</v>
+        <v>34.03</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Energy, Summer'!H4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>193.99338874803428</v>
+        <v>34.31</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Energy, Summer'!I4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>201.23848647260823</v>
+        <v>37.020000000000003</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Energy, Summer'!J4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>210</v>
+        <v>39.76</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Energy, Summer'!K4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>199.10876472287305</v>
+        <v>40.39</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Energy, Summer'!L4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>194.58647581758083</v>
+        <v>40.29</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Energy, Summer'!M4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>176.72646747328224</v>
+        <v>39.549999999999997</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Energy, Summer'!N4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>171.83349914952342</v>
+        <v>39.619999999999997</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Energy, Summer'!O4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>146.85644597066661</v>
+        <v>36.97</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Energy, Summer'!P4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>152.78731666613177</v>
+        <v>35.770000000000003</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Energy, Summer'!Q4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>138.546487371225</v>
+        <v>34.5</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Energy, Summer'!R4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>134.79251580602718</v>
+        <v>34.4</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Energy, Summer'!S4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>134.07811547225521</v>
+        <v>35.24</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Energy, Summer'!T4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>135.84389742931418</v>
+        <v>40.619999999999997</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Energy, Summer'!U4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>154.29025321736898</v>
+        <v>51.02</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Energy, Summer'!V4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>187.0043968034918</v>
+        <v>51.05</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Energy, Summer'!W4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>186.75503064925064</v>
+        <v>50.04</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Energy, Summer'!X4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>176.83430148592706</v>
+        <v>46.51</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Energy, Summer'!Y4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>168.2143201001316</v>
+        <v>40.97</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <f>'[1]Energy, Summer'!B5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>160.65919958920378</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Energy, Summer'!C5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>153.08578580827373</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Energy, Summer'!D5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>149.90853364998878</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Energy, Summer'!E5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>145.57591707050935</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Energy, Summer'!F5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>147.02012259700248</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Energy, Summer'!G5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>153.24176000513495</v>
+        <v>0</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Energy, Summer'!H5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>166.2800474983151</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Energy, Summer'!I5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>172.49013126223562</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Energy, Summer'!J5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Energy, Summer'!K5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>170.66465547674832</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Energy, Summer'!L5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>166.78840784364073</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Energy, Summer'!M5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>151.47982926281335</v>
+        <v>0</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Energy, Summer'!N5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>147.28585641387721</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Energy, Summer'!O5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>125.87695368914281</v>
+        <v>0</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Energy, Summer'!P5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>130.96055714239867</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Energy, Summer'!Q5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>118.75413203247857</v>
+        <v>0</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Energy, Summer'!R5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>115.53644211945186</v>
+        <v>0</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Energy, Summer'!S5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>114.92409897621876</v>
+        <v>0</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Energy, Summer'!T5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>116.43762636798357</v>
+        <v>0</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Energy, Summer'!U5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>132.24878847203055</v>
+        <v>0</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Energy, Summer'!V5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>160.28948297442156</v>
+        <v>0</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Energy, Summer'!W5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>160.07574055650056</v>
+        <v>0</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Energy, Summer'!X5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>151.5722584165089</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Energy, Summer'!Y5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>144.18370294296994</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <f>'[1]Energy, Summer'!B6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>196.3612439423602</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Energy, Summer'!C6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>187.10484932122344</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Energy, Summer'!D6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>183.22154112776408</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Energy, Summer'!E6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>177.92612086395587</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Energy, Summer'!F6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>179.69126095189193</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Energy, Summer'!G6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>187.29548445072052</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Energy, Summer'!H6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>203.23116916460737</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Energy, Summer'!I6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>210.82127154273243</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Energy, Summer'!J6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>220.00000000000003</v>
+        <v>0</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Energy, Summer'!K6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>208.59013447158128</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Energy, Summer'!L6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>203.85249847556088</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Energy, Summer'!M6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>185.14201354343857</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Energy, Summer'!N6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>180.01604672807215</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Energy, Summer'!O6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>153.84961006450789</v>
+        <v>0</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Energy, Summer'!P6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>160.06290317404282</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Energy, Summer'!Q6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>145.14393915080714</v>
+        <v>0</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Energy, Summer'!R6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>141.21120703488563</v>
+        <v>0</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Energy, Summer'!S6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>140.46278763760071</v>
+        <v>0</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Energy, Summer'!T6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>142.3126544497577</v>
+        <v>0</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Energy, Summer'!U6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>161.6374081324818</v>
+        <v>0</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Energy, Summer'!V6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>195.90936807984858</v>
+        <v>0</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Energy, Summer'!W6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>195.64812734683403</v>
+        <v>0</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Energy, Summer'!X6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>185.25498250906645</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Energy, Summer'!Y6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>176.22452581918552</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6473,9 +6103,9 @@
       <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -6552,512 +6182,512 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[1]Secondary Reserve, Summer'!B2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>35.702044353156396</v>
+        <v>13.5</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Secondary Reserve, Summer'!C2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>35.702044353156396</v>
+        <v>14.88</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Secondary Reserve, Summer'!D2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>36</v>
+        <v>8.92</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Secondary Reserve, Summer'!E2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>36.4</v>
+        <v>8.93</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Secondary Reserve, Summer'!F2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>35.702044353156396</v>
+        <v>8.93</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Secondary Reserve, Summer'!G2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Secondary Reserve, Summer'!H2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>36.4</v>
+        <v>12.54</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Secondary Reserve, Summer'!I2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>35.6</v>
+        <v>10.18</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Secondary Reserve, Summer'!J2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>34.4</v>
+        <v>10.37</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Secondary Reserve, Summer'!K2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>33.6</v>
+        <v>9.5</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Secondary Reserve, Summer'!L2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>32.799999999999997</v>
+        <v>7.29</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Secondary Reserve, Summer'!M2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>32</v>
+        <v>7.76</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Secondary Reserve, Summer'!N2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>32.400000000000006</v>
+        <v>8.52</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Secondary Reserve, Summer'!O2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>32.799999999999997</v>
+        <v>7.91</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Secondary Reserve, Summer'!P2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>33.199999999999996</v>
+        <v>7.86</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>33.6</v>
+        <v>7.35</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Secondary Reserve, Summer'!R2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>33.199999999999996</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Secondary Reserve, Summer'!S2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>33.6</v>
+        <v>7.44</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Secondary Reserve, Summer'!T2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>33.199999999999996</v>
+        <v>4.84</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Secondary Reserve, Summer'!U2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>33.6</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Secondary Reserve, Summer'!V2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>33.199999999999996</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Secondary Reserve, Summer'!W2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>32.799999999999997</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Secondary Reserve, Summer'!X2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>34</v>
+        <v>8.4</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>35.200000000000003</v>
+        <v>9.5</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[1]Secondary Reserve, Summer'!B3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>33.916942135498573</v>
+        <v>10.64</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Secondary Reserve, Summer'!C3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>33.916942135498573</v>
+        <v>9.02</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Secondary Reserve, Summer'!D3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>34.199999999999996</v>
+        <v>5.51</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Secondary Reserve, Summer'!E3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>34.58</v>
+        <v>5.7</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Secondary Reserve, Summer'!F3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>33.916942135498573</v>
+        <v>5.68</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Secondary Reserve, Summer'!G3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38</v>
+        <v>5.7</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Secondary Reserve, Summer'!H3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>34.58</v>
+        <v>11.33</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Secondary Reserve, Summer'!I3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>33.82</v>
+        <v>5.98</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Secondary Reserve, Summer'!J3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>32.68</v>
+        <v>8.57</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Secondary Reserve, Summer'!K3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>31.919999999999998</v>
+        <v>4.71</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Secondary Reserve, Summer'!L3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>31.159999999999997</v>
+        <v>9.1</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Secondary Reserve, Summer'!M3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>30.4</v>
+        <v>7.08</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Secondary Reserve, Summer'!N3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>30.780000000000005</v>
+        <v>7.32</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Secondary Reserve, Summer'!O3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>31.159999999999997</v>
+        <v>5.7</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Secondary Reserve, Summer'!P3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>31.539999999999996</v>
+        <v>5.7</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>31.919999999999998</v>
+        <v>4.84</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Secondary Reserve, Summer'!R3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>31.539999999999996</v>
+        <v>4.88</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Secondary Reserve, Summer'!S3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>31.919999999999998</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Secondary Reserve, Summer'!T3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>31.539999999999996</v>
+        <v>5.68</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Secondary Reserve, Summer'!U3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>31.919999999999998</v>
+        <v>4.75</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Secondary Reserve, Summer'!V3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>31.539999999999996</v>
+        <v>3.85</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Secondary Reserve, Summer'!W3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>31.159999999999997</v>
+        <v>5.6</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Secondary Reserve, Summer'!X3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>32.299999999999997</v>
+        <v>6.65</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>33.44</v>
+        <v>9.86</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[1]Secondary Reserve, Summer'!B4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>37.487146570814218</v>
+        <v>6.17</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Secondary Reserve, Summer'!C4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>37.487146570814218</v>
+        <v>7.51</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Secondary Reserve, Summer'!D4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>37.800000000000004</v>
+        <v>7.6</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Secondary Reserve, Summer'!E4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.22</v>
+        <v>7.89</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Secondary Reserve, Summer'!F4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>37.487146570814218</v>
+        <v>7.98</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Secondary Reserve, Summer'!G4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>42</v>
+        <v>8.44</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Secondary Reserve, Summer'!H4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.22</v>
+        <v>7.6</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Secondary Reserve, Summer'!I4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>37.380000000000003</v>
+        <v>7.34</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Secondary Reserve, Summer'!J4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>36.119999999999997</v>
+        <v>6.54</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Secondary Reserve, Summer'!K4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>35.28</v>
+        <v>7.6</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Secondary Reserve, Summer'!L4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>34.44</v>
+        <v>8.44</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Secondary Reserve, Summer'!M4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>33.6</v>
+        <v>6.49</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Secondary Reserve, Summer'!N4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>34.02000000000001</v>
+        <v>6.44</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Secondary Reserve, Summer'!O4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>34.44</v>
+        <v>6.54</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Secondary Reserve, Summer'!P4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>34.86</v>
+        <v>7.6</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>35.28</v>
+        <v>7.6</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Secondary Reserve, Summer'!R4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>34.86</v>
+        <v>7.6</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Secondary Reserve, Summer'!S4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>35.28</v>
+        <v>7.6</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Secondary Reserve, Summer'!T4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>34.86</v>
+        <v>5.78</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Secondary Reserve, Summer'!U4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>35.28</v>
+        <v>1.5</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Secondary Reserve, Summer'!V4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>34.86</v>
+        <v>3.8</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Secondary Reserve, Summer'!W4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>34.44</v>
+        <v>4.18</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Secondary Reserve, Summer'!X4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>35.700000000000003</v>
+        <v>4.28</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>36.960000000000008</v>
+        <v>6.54</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <f>'[1]Secondary Reserve, Summer'!B5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>32.131839917840757</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Secondary Reserve, Summer'!C5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>32.131839917840757</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Secondary Reserve, Summer'!D5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>32.4</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Secondary Reserve, Summer'!E5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>32.76</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Secondary Reserve, Summer'!F5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>32.131839917840757</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Secondary Reserve, Summer'!G5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Secondary Reserve, Summer'!H5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>32.76</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Secondary Reserve, Summer'!I5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>32.04</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Secondary Reserve, Summer'!J5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>30.96</v>
+        <v>0</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Secondary Reserve, Summer'!K5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>30.240000000000002</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Secondary Reserve, Summer'!L5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>29.52</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Secondary Reserve, Summer'!M5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>28.8</v>
+        <v>0</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Secondary Reserve, Summer'!N5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>29.160000000000007</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Secondary Reserve, Summer'!O5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>29.52</v>
+        <v>0</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Secondary Reserve, Summer'!P5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>29.879999999999995</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>30.240000000000002</v>
+        <v>0</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Secondary Reserve, Summer'!R5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>29.879999999999995</v>
+        <v>0</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Secondary Reserve, Summer'!S5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>30.240000000000002</v>
+        <v>0</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Secondary Reserve, Summer'!T5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>29.879999999999995</v>
+        <v>0</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Secondary Reserve, Summer'!U5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>30.240000000000002</v>
+        <v>0</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Secondary Reserve, Summer'!V5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>29.879999999999995</v>
+        <v>0</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Secondary Reserve, Summer'!W5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>29.52</v>
+        <v>0</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Secondary Reserve, Summer'!X5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>30.6</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>31.680000000000003</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <f>'[1]Secondary Reserve, Summer'!B6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>39.272248788472041</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Secondary Reserve, Summer'!C6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>39.272248788472041</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Secondary Reserve, Summer'!D6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>39.6</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Secondary Reserve, Summer'!E6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.04</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Secondary Reserve, Summer'!F6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>39.272248788472041</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Secondary Reserve, Summer'!G6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Secondary Reserve, Summer'!H6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.04</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Secondary Reserve, Summer'!I6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>39.160000000000004</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Secondary Reserve, Summer'!J6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>37.840000000000003</v>
+        <v>0</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Secondary Reserve, Summer'!K6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>36.960000000000008</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Secondary Reserve, Summer'!L6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>36.08</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Secondary Reserve, Summer'!M6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>35.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Secondary Reserve, Summer'!N6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>35.640000000000008</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Secondary Reserve, Summer'!O6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>36.08</v>
+        <v>0</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Secondary Reserve, Summer'!P6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>36.519999999999996</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>36.960000000000008</v>
+        <v>0</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Secondary Reserve, Summer'!R6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>36.519999999999996</v>
+        <v>0</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Secondary Reserve, Summer'!S6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>36.960000000000008</v>
+        <v>0</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Secondary Reserve, Summer'!T6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>36.519999999999996</v>
+        <v>0</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Secondary Reserve, Summer'!U6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>36.960000000000008</v>
+        <v>0</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Secondary Reserve, Summer'!V6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>36.519999999999996</v>
+        <v>0</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Secondary Reserve, Summer'!W6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>36.08</v>
+        <v>0</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Secondary Reserve, Summer'!X6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>37.400000000000006</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.720000000000006</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -7096,9 +6726,9 @@
       <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -7175,7 +6805,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7276,7 +6906,7 @@
         <v>176.22452581918552</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7377,7 +7007,7 @@
         <v>167.41329952822622</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7478,7 +7108,7 @@
         <v>185.03575211014481</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7579,7 +7209,7 @@
         <v>158.60207323726698</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7693,9 +7323,9 @@
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -7772,7 +7402,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7873,7 +7503,7 @@
         <v>144.18370294296994</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7974,7 +7604,7 @@
         <v>136.97451779582144</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8075,7 +7705,7 @@
         <v>151.39288809011845</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8176,7 +7806,7 @@
         <v>129.76533264867297</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>

--- a/data/CS1_3/Market Data/CS1_market_data_2020.xlsx
+++ b/data/CS1_3/Market Data/CS1_market_data_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9590418-D29B-4FDD-9C3C-71497A7A07EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E7837B-11A3-4F3A-A942-4FB3DB3C3963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -3035,8 +3035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3049,10 +3049,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <v>0.15</v>
@@ -3086,7 +3086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E73F7F-45E0-423B-A01B-B6DF6F75CAB7}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
